--- a/data/trans_orig/P14B11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F7DD55A-B274-443B-A321-A9AE7185E686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB78E40-5051-4184-A616-50C8D8097D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC36EBF4-10BE-465D-903A-134DC91EE110}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7FC10F38-4E14-436D-BCAB-B32764D37C85}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -105,493 +105,493 @@
     <t>76,06%</t>
   </si>
   <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo infarto de miocardio le limita en 2015 (Tasa respuesta: 1,61%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
     <t>44,44%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo infarto de miocardio le limita en 2015 (Tasa respuesta: 1,61%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60124FEA-711B-4493-8F7F-A0288BEBA372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978E2F16-059C-4650-B4A8-5808093A6E03}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2066,7 +2066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC56057C-993B-4DB4-9FFB-B774D7EFF7DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140BCB7D-C29E-44A1-8EEB-494FECD876F9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B11-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB78E40-5051-4184-A616-50C8D8097D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54EF37E8-8A49-415C-8F76-CD129CECD325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7FC10F38-4E14-436D-BCAB-B32764D37C85}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B01735E8-C00A-4422-A7B1-89AD1F0EF3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="187">
   <si>
     <t>Población cuyo infarto de miocardio le limita en 2012 (Tasa respuesta: 1,49%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -99,16 +99,16 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>76,06%</t>
   </si>
   <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>58,15%</t>
@@ -117,31 +117,31 @@
     <t>15,23%</t>
   </si>
   <si>
-    <t>86,66%</t>
+    <t>86,59%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>13,34%</t>
+    <t>13,41%</t>
   </si>
   <si>
     <t>84,77%</t>
@@ -150,448 +150,454 @@
     <t>30,15%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>51,3%</t>
+    <t>49,98%</t>
   </si>
   <si>
     <t>79,13%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>48,7%</t>
+    <t>50,02%</t>
   </si>
   <si>
     <t>20,87%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>79,83%</t>
   </si>
   <si>
-    <t>49,05%</t>
+    <t>49,21%</t>
   </si>
   <si>
     <t>67,69%</t>
   </si>
   <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo infarto de miocardio le limita en 2016 (Tasa respuesta: 1,61%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo infarto de miocardio le limita en 2015 (Tasa respuesta: 1,61%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978E2F16-059C-4650-B4A8-5808093A6E03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDB1BEA-E0ED-4E7F-BD80-1276FAB49484}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2066,7 +2072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140BCB7D-C29E-44A1-8EEB-494FECD876F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00D31B7-A8ED-4D74-8FE8-B01EB0D3E716}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2989,13 +2995,13 @@
         <v>83811</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3016,13 @@
         <v>20792</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3025,13 +3031,13 @@
         <v>6722</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -3040,13 +3046,13 @@
         <v>27514</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
